--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -5,18 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e182d2d2aa497be0/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89FEB28-97A8-4DE4-8DEA-DEBDA129098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5572E436-6FE0-4867-B6C1-0FA7DC6662D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjTWC+OjRB6KgliiywktJhu9g6KKQ=="/>
     </ext>
@@ -25,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -39,64 +53,34 @@
     <t>Completion %</t>
   </si>
   <si>
-    <t>Complete algorithm to generate simulated AMSR-E &amp; target arrays from LLC4320</t>
+    <t>Task 1: Individual Investigation of Possible Project Topics</t>
   </si>
   <si>
-    <t>Apply algorithm to the hourly LLC datasets</t>
+    <t>Task 2: Topic Chosen by Team</t>
   </si>
   <si>
-    <t>Gain familiarity with Brahim's model</t>
+    <t>Task 3: Identify stakeholders and issues.</t>
   </si>
   <si>
-    <t>Zoom with Brahim</t>
+    <t>Task 4: Agree upon the stakeholder(s) and issue(s) each team member will investigate further.</t>
   </si>
   <si>
-    <t>Train NN with subset of LLC dataset</t>
+    <t>Task 5: Begin to make slides.</t>
   </si>
   <si>
-    <t>Feed real AMSRE into NN</t>
+    <t>Task 6: Further investigation by individual team members, alternative courses of action and the effects from perspective of stakeholder</t>
   </si>
   <si>
-    <t>Identify metric to evaluate the performance of NN with real data</t>
+    <t>Task 7: Correlate perspectives and make a decision.</t>
   </si>
   <si>
-    <t>Write first paper</t>
+    <t>Task 8: As a team, use a weighted benefit analysis to show how you made your decision.</t>
   </si>
   <si>
-    <t>Writing intro to SST paper and framework</t>
+    <t>Task 9: Slides compiled for team presentation.</t>
   </si>
   <si>
-    <t>First draft of thesis proposal</t>
-  </si>
-  <si>
-    <t>Submit manuscript for paper 1</t>
-  </si>
-  <si>
-    <t>Compare NN to David Long's work</t>
-  </si>
-  <si>
-    <t>Investigate Japanese AMSR3 SST retrieval algorithm</t>
-  </si>
-  <si>
-    <t>Generate enhanced AMSRE 10x10 for entire dataset</t>
-  </si>
-  <si>
-    <t>Enhance AMSR2 and test performance</t>
-  </si>
-  <si>
-    <t>Paper 2</t>
-  </si>
-  <si>
-    <t>Port approach to other ocean products</t>
-  </si>
-  <si>
-    <t>Paper 3</t>
-  </si>
-  <si>
-    <t>Focus on terrestrial &amp; cryospheric products</t>
-  </si>
-  <si>
-    <t>Project 1</t>
+    <t>Task 10: Presentation during the lab period.</t>
   </si>
 </sst>
 </file>
@@ -106,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\ m/d/yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +137,11 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -202,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -233,6 +222,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,13 +443,13 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="63.8984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
     <col min="5" max="26" width="7.69921875" style="5" customWidth="1"/>
@@ -501,14 +493,14 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
+      <c r="A2" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44260</v>
+        <v>45553</v>
       </c>
       <c r="C2" s="7">
-        <v>44561</v>
+        <v>45555</v>
       </c>
       <c r="D2" s="8">
         <v>100</v>
@@ -537,14 +529,14 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
+      <c r="A3" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="7">
-        <v>44260</v>
+        <v>45555</v>
       </c>
       <c r="C3" s="7">
-        <v>44274</v>
+        <v>45559</v>
       </c>
       <c r="D3" s="8">
         <v>100</v>
@@ -573,14 +565,14 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
+      <c r="A4" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>44277</v>
+        <v>45557</v>
       </c>
       <c r="C4" s="7">
-        <v>44284</v>
+        <v>45559</v>
       </c>
       <c r="D4" s="8">
         <v>100</v>
@@ -609,14 +601,14 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
+      <c r="A5" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="7">
-        <v>44274</v>
+        <v>45558</v>
       </c>
       <c r="C5" s="7">
-        <v>44281</v>
+        <v>45565</v>
       </c>
       <c r="D5" s="8">
         <v>100</v>
@@ -644,15 +636,15 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>7</v>
+    <row r="6" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="7">
-        <v>44284</v>
+        <v>45558</v>
       </c>
       <c r="C6" s="7">
-        <v>44288</v>
+        <v>45586</v>
       </c>
       <c r="D6" s="8">
         <v>100</v>
@@ -681,14 +673,14 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
+      <c r="A7" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="7">
-        <v>44285</v>
+        <v>45575</v>
       </c>
       <c r="C7" s="7">
-        <v>44306</v>
+        <v>45589</v>
       </c>
       <c r="D7" s="8">
         <v>100</v>
@@ -717,14 +709,14 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="7">
-        <v>44307</v>
+        <v>45587</v>
       </c>
       <c r="C8" s="7">
-        <v>44314</v>
+        <v>45589</v>
       </c>
       <c r="D8" s="8">
         <v>100</v>
@@ -753,17 +745,17 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
+      <c r="A9" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="7">
-        <v>44309</v>
+        <v>45583</v>
       </c>
       <c r="C9" s="7">
-        <v>44323</v>
+        <v>45590</v>
       </c>
       <c r="D9" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -789,17 +781,17 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
+      <c r="A10" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="10">
-        <v>44260</v>
+        <v>45586</v>
       </c>
       <c r="C10" s="10">
-        <v>44498</v>
+        <v>45595</v>
       </c>
       <c r="D10" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -825,17 +817,17 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
+      <c r="A11" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="10">
-        <v>44260</v>
+        <v>45594</v>
       </c>
       <c r="C11" s="10">
-        <v>44337</v>
+        <v>44499</v>
       </c>
       <c r="D11" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -861,18 +853,10 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10">
-        <v>44340</v>
-      </c>
-      <c r="C12" s="10">
-        <v>44445</v>
-      </c>
-      <c r="D12" s="8">
-        <v>100</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -897,18 +881,10 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44446</v>
-      </c>
-      <c r="C13" s="7">
-        <v>44498</v>
-      </c>
-      <c r="D13" s="8">
-        <v>100</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -933,18 +909,10 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44337</v>
-      </c>
-      <c r="C14" s="7">
-        <v>44337</v>
-      </c>
-      <c r="D14" s="8">
-        <v>100</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -969,16 +937,10 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="10">
-        <v>44337</v>
-      </c>
-      <c r="D15" s="8">
-        <v>100</v>
-      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1003,18 +965,10 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="10">
-        <v>44340</v>
-      </c>
-      <c r="C16" s="10">
-        <v>44526</v>
-      </c>
-      <c r="D16" s="8">
-        <v>100</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1039,18 +993,10 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="10">
-        <v>44529</v>
-      </c>
-      <c r="C17" s="10">
-        <v>44561</v>
-      </c>
-      <c r="D17" s="8">
-        <v>100</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1075,18 +1021,10 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="10">
-        <v>44562</v>
-      </c>
-      <c r="C18" s="11">
-        <v>44926</v>
-      </c>
-      <c r="D18" s="8">
-        <v>100</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1111,18 +1049,10 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10">
-        <v>44564</v>
-      </c>
-      <c r="C19" s="10">
-        <v>44926</v>
-      </c>
-      <c r="D19" s="8">
-        <v>100</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1147,18 +1077,10 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10">
-        <v>44928</v>
-      </c>
-      <c r="C20" s="10">
-        <v>45291</v>
-      </c>
-      <c r="D20" s="8">
-        <v>100</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1183,18 +1105,10 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10">
-        <v>44928</v>
-      </c>
-      <c r="C21" s="10">
-        <v>45291</v>
-      </c>
-      <c r="D21" s="8">
-        <v>100</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -28799,7 +28713,6 @@
       <c r="Z1006" s="4"/>
     </row>
     <row r="1007" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="9"/>
       <c r="B1007" s="4"/>
       <c r="C1007" s="4"/>
       <c r="D1007" s="4"/>
